--- a/lab2/my_LL.xlsx
+++ b/lab2/my_LL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\intelligient_systems\intelligient_systems\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13418E8-7F41-49AE-A725-C8F9A2F932B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1D3F37-D213-48CE-89DE-FC7DB7332121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="112">
   <si>
     <t>010</t>
   </si>
@@ -286,9 +286,6 @@
     <t>id, булеан, число, (, not</t>
   </si>
   <si>
-    <t>-|, ), ;, |, ^, &gt;, &lt;, ==, +, -</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -316,27 +313,9 @@
     <t>тип, def</t>
   </si>
   <si>
-    <t>-|, )</t>
-  </si>
-  <si>
     <t>id, )</t>
   </si>
   <si>
-    <t>-|, ), ;</t>
-  </si>
-  <si>
-    <t>-|, ), ;, |, ^</t>
-  </si>
-  <si>
-    <t>-|, ), ;, |, ^, &gt;, &lt;, ==</t>
-  </si>
-  <si>
-    <t>-|, ), ;, |, ^, &gt;, &lt;, ==, +, -, *, /</t>
-  </si>
-  <si>
-    <t>-|, ),</t>
-  </si>
-  <si>
     <t xml:space="preserve">070 </t>
   </si>
   <si>
@@ -359,6 +338,24 @@
   </si>
   <si>
     <t>id, булеан, число, (, not, return, тип, def</t>
+  </si>
+  <si>
+    <t>-|, ), }</t>
+  </si>
+  <si>
+    <t>-|, ), ;, }</t>
+  </si>
+  <si>
+    <t>-|, ), ;, |, ^, }</t>
+  </si>
+  <si>
+    <t>-|, ), ;, |, ^, &gt;, &lt;, ==, }</t>
+  </si>
+  <si>
+    <t>-|, ), ;, |, ^, &gt;, &lt;, ==, +, -, }</t>
+  </si>
+  <si>
+    <t>-|, ), ;, |, ^, &gt;, &lt;, ==, +, -, *, /, }</t>
   </si>
 </sst>
 </file>
@@ -1016,33 +1013,33 @@
   </sheetPr>
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1110,8 +1107,8 @@
       <c r="F4" s="8">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>98</v>
+      <c r="G4" s="35" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1363,8 +1360,8 @@
       <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>100</v>
+      <c r="G15" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1478,8 +1475,8 @@
       <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>101</v>
+      <c r="G20" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1570,8 +1567,8 @@
       <c r="F24" s="8">
         <v>0</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>102</v>
+      <c r="G24" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1662,8 +1659,8 @@
       <c r="F28" s="8">
         <v>0</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>88</v>
+      <c r="G28" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1801,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,8 +1820,8 @@
       <c r="F35" s="29">
         <v>0</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>100</v>
+      <c r="G35" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1870,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,8 +1889,8 @@
       <c r="F38" s="27">
         <v>0</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>100</v>
+      <c r="G38" s="35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,8 +1910,8 @@
       <c r="F39" s="29">
         <v>0</v>
       </c>
-      <c r="G39" s="15" t="s">
-        <v>104</v>
+      <c r="G39" s="31" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1983,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,8 +2025,8 @@
       <c r="F44" s="27">
         <v>0</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>101</v>
+      <c r="G44" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2121,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2213,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2267,7 +2264,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C55" s="29">
         <v>0</v>
@@ -2282,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2349,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,7 +2442,7 @@
         <v>52</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C63" s="29">
         <v>0</v>
@@ -2459,8 +2456,8 @@
       <c r="F63" s="29">
         <v>0</v>
       </c>
-      <c r="G63" s="15" t="s">
-        <v>101</v>
+      <c r="G63" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2514,7 +2511,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C66" s="27">
         <v>0</v>
@@ -2528,8 +2525,8 @@
       <c r="F66" s="27">
         <v>0</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>101</v>
+      <c r="G66" s="35" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2549,8 +2546,8 @@
       <c r="F67" s="29">
         <v>0</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>100</v>
+      <c r="G67" s="31" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2595,8 +2592,8 @@
       <c r="F69" s="29">
         <v>0</v>
       </c>
-      <c r="G69" s="15" t="s">
-        <v>102</v>
+      <c r="G69" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2664,8 +2661,8 @@
       <c r="F72" s="27">
         <v>0</v>
       </c>
-      <c r="G72" s="9" t="s">
-        <v>102</v>
+      <c r="G72" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2733,8 +2730,8 @@
       <c r="F75" s="29">
         <v>0</v>
       </c>
-      <c r="G75" s="15" t="s">
-        <v>102</v>
+      <c r="G75" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2802,8 +2799,8 @@
       <c r="F78" s="27">
         <v>0</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>102</v>
+      <c r="G78" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,8 +2820,8 @@
       <c r="F79" s="29">
         <v>0</v>
       </c>
-      <c r="G79" s="15" t="s">
-        <v>101</v>
+      <c r="G79" s="31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,8 +2866,8 @@
       <c r="F81" s="29">
         <v>0</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>88</v>
+      <c r="G81" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,8 +2935,8 @@
       <c r="F84" s="27">
         <v>0</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>88</v>
+      <c r="G84" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3007,8 +3004,8 @@
       <c r="F87" s="29">
         <v>0</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>88</v>
+      <c r="G87" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3028,13 +3025,13 @@
       <c r="F88" s="27">
         <v>0</v>
       </c>
-      <c r="G88" s="9" t="s">
-        <v>102</v>
+      <c r="G88" s="35" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B89" s="30">
         <v>140</v>
@@ -3057,7 +3054,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B90" s="34">
         <v>130</v>
@@ -3074,13 +3071,13 @@
       <c r="F90" s="27">
         <v>0</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>103</v>
+      <c r="G90" s="35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B91" s="30">
         <v>1301</v>
@@ -3103,7 +3100,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B92" s="34">
         <v>140</v>
@@ -3126,7 +3123,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B93" s="30">
         <v>130</v>
@@ -3143,13 +3140,13 @@
       <c r="F93" s="29">
         <v>0</v>
       </c>
-      <c r="G93" s="15" t="s">
-        <v>103</v>
+      <c r="G93" s="31" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="26" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B94" s="34">
         <v>1311</v>
@@ -3212,8 +3209,8 @@
       <c r="F96" s="27">
         <v>0</v>
       </c>
-      <c r="G96" s="9" t="s">
-        <v>103</v>
+      <c r="G96" s="35" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3233,8 +3230,8 @@
       <c r="F97" s="29">
         <v>0</v>
       </c>
-      <c r="G97" s="15" t="s">
-        <v>88</v>
+      <c r="G97" s="31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,7 +3340,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
